--- a/MedicalLink/Templates/BC_111_ChiThuongGiuongNgoaiKieuVP.xlsx
+++ b/MedicalLink/Templates/BC_111_ChiThuongGiuongNgoaiKieuVP.xlsx
@@ -139,7 +139,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,12 +185,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -304,18 +298,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -328,6 +319,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,7 +331,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -665,7 +659,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G15"/>
+      <selection activeCell="A5" sqref="A5:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,10 +678,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="G1" s="31"/>
@@ -696,27 +690,27 @@
       <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="30" t="s">
@@ -729,41 +723,41 @@
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -777,7 +771,7 @@
       <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -789,7 +783,7 @@
       <c r="G6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -806,8 +800,8 @@
         <v>12</v>
       </c>
       <c r="B7" s="32"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="16">
         <f>SUM(E6:E6)</f>
         <v>0</v>
@@ -838,10 +832,10 @@
       <c r="D9" s="12"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="1" t="s">
         <v>17</v>
       </c>
